--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-observation-socialhistory.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-observation-socialhistory.xlsx
@@ -485,7 +485,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationリソースの一意な識別ID。</t>
+    <t>このObservationリソースの一意な識別ID</t>
   </si>
   <si>
     <t>観測を区別し、参照することを可能にします。 / Allows observations to be distinguished and referenced.</t>
@@ -514,7 +514,7 @@
 </t>
   </si>
   <si>
-    <t>このObservationが実施されることになった依頼や計画、提案に関する情報。</t>
+    <t>このObservationが実施されることになった依頼や計画、提案に関する情報</t>
   </si>
   <si>
     <t>イベントの許可を追跡し、提案/勧告が行われたかどうかを追跡することができます。 / Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -540,10 +540,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報。</t>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -562,10 +562,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態。【詳細参照】</t>
-  </si>
-  <si>
-    <t>結果の状態。</t>
+    <t>結果の状態【詳細参照】</t>
+  </si>
+  <si>
+    <t>結果の状態</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
@@ -606,10 +606,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationを分類するコード。</t>
+    <t>このObservationを分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationを分類するコード</t>
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
@@ -899,10 +899,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象を特定するコード。</t>
+    <t>このObservationの対象を特定するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
     <t>MEDISのJ-MIXの「生活背景情報」（※宗教を除く）</t>
@@ -939,10 +939,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報。</t>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
@@ -971,10 +971,10 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報。</t>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
@@ -995,10 +995,10 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報。</t>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
@@ -1031,10 +1031,10 @@
 Period</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間。【詳細参照】</t>
-  </si>
-  <si>
-    <t>取得された結果が臨床的に確定された日時または期間。</t>
+    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
+  </si>
+  <si>
+    <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
@@ -1064,10 +1064,10 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時。</t>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
@@ -1090,10 +1090,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの責任者/実施者に関する情報。</t>
+    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
@@ -1122,7 +1122,7 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>取得された結果。</t>
+    <t>取得された結果</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
@@ -1151,10 +1151,10 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由。</t>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
@@ -1188,10 +1188,10 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。【詳細参照】</t>
-  </si>
-  <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価。</t>
+    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
+  </si>
+  <si>
+    <t>高、低、正常等の結果のカテゴリ分けした評価</t>
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
@@ -1227,10 +1227,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関するコメント。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント。</t>
+    <t>このObservationに関するコメント【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関するコメント</t>
   </si>
   <si>
     <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.
@@ -1250,7 +1250,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>対象となった身体部位。</t>
+    <t>対象となった身体部位</t>
   </si>
   <si>
     <t>観察結果で見つかったコードで暗黙的ではない場合にのみ使用されます。多くのシステムでは、これはインラインコンポーネントの代わりに関連する観察として表される場合があります。
@@ -1282,7 +1282,7 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>このObservationの実施方法。</t>
+    <t>このObservationの実施方法</t>
   </si>
   <si>
     <t>CODERATION.CODEのコードに暗黙的ではない場合にのみ使用されます。 / Only used if not implicit in code for Observation.code.</t>
@@ -1310,10 +1310,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに使われた検体/標本に関する情報。</t>
+    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
@@ -1339,10 +1339,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報。</t>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
@@ -1368,10 +1368,10 @@
 </t>
   </si>
   <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。【詳細参照】</t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス。</t>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
+  </si>
+  <si>
+    <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
@@ -1543,10 +1543,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ。</t>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
@@ -1566,10 +1566,10 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。【詳細参照】</t>
-  </si>
-  <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース。</t>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
+  </si>
+  <si>
+    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
@@ -1582,10 +1582,10 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。【詳細参照】</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ。</t>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
+  </si>
+  <si>
+    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
